--- a/result/results of Speedup Strategy.xlsx
+++ b/result/results of Speedup Strategy.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="accuracy" sheetId="1" r:id="rId1"/>
     <sheet name="time" sheetId="2" r:id="rId2"/>
-    <sheet name="speedup rate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:J58"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>ST</t>
   </si>
@@ -121,10 +121,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -895,13 +895,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
@@ -924,13 +924,13 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>11.83291131</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>503.67856710000001</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>2155.5343250000001</v>
       </c>
     </row>
@@ -941,13 +941,13 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>44.032927710000003</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>187.0509107</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>448.9560199</v>
       </c>
     </row>
@@ -958,13 +958,13 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>43.169562550000002</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>28.586436419999998</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>390.99527879999999</v>
       </c>
     </row>
@@ -975,13 +975,13 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>30.767080740000001</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>223.0215293</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>759.85442290000003</v>
       </c>
     </row>
@@ -992,13 +992,13 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>51.277070899999998</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>643.65704040000003</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>2618.4661689999998</v>
       </c>
     </row>
@@ -1009,13 +1009,13 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>6.2669733550000002</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>26.687864319999999</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>327.49154679999998</v>
       </c>
     </row>
@@ -1026,13 +1026,13 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>99.076993189999996</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>29.49220832</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>140.67392179999999</v>
       </c>
     </row>
@@ -1043,13 +1043,13 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>15.00432458</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>256.34912200000002</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>3587.0496640000001</v>
       </c>
     </row>
@@ -1060,13 +1060,13 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>6.2473721229999999</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>49.699340429999999</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>293.4802396</v>
       </c>
     </row>
@@ -1077,13 +1077,13 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>258.88954539999997</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>6262.0439189999997</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>13086.858270000001</v>
       </c>
     </row>
@@ -1094,13 +1094,13 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>55.386136129999997</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>30.280941810000002</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>72.23484551</v>
       </c>
     </row>
@@ -1111,13 +1111,13 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>4.0220845130000002</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>104.6141755</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>408.74389029999998</v>
       </c>
     </row>
@@ -1129,238 +1129,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>11.83291131</v>
-      </c>
-      <c r="D2">
-        <v>503.67856710000001</v>
-      </c>
-      <c r="E2">
-        <v>2155.5343250000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>44.032927710000003</v>
-      </c>
-      <c r="D3">
-        <v>187.0509107</v>
-      </c>
-      <c r="E3">
-        <v>448.9560199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>43.169562550000002</v>
-      </c>
-      <c r="D4">
-        <v>28.586436419999998</v>
-      </c>
-      <c r="E4">
-        <v>390.99527879999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>30.767080740000001</v>
-      </c>
-      <c r="D5">
-        <v>223.0215293</v>
-      </c>
-      <c r="E5">
-        <v>759.85442290000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>51.277070899999998</v>
-      </c>
-      <c r="D6">
-        <v>643.65704040000003</v>
-      </c>
-      <c r="E6">
-        <v>2618.4661689999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>6.2669733550000002</v>
-      </c>
-      <c r="D7">
-        <v>26.687864319999999</v>
-      </c>
-      <c r="E7">
-        <v>327.49154679999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>99.076993189999996</v>
-      </c>
-      <c r="D8">
-        <v>29.49220832</v>
-      </c>
-      <c r="E8">
-        <v>140.67392179999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>15.00432458</v>
-      </c>
-      <c r="D9">
-        <v>256.34912200000002</v>
-      </c>
-      <c r="E9">
-        <v>3587.0496640000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>6.2473721229999999</v>
-      </c>
-      <c r="D10">
-        <v>49.699340429999999</v>
-      </c>
-      <c r="E10">
-        <v>293.4802396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>258.88954539999997</v>
-      </c>
-      <c r="D11">
-        <v>6262.0439189999997</v>
-      </c>
-      <c r="E11">
-        <v>13086.858270000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>55.386136129999997</v>
-      </c>
-      <c r="D12">
-        <v>30.280941810000002</v>
-      </c>
-      <c r="E12">
-        <v>72.23484551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>4.0220845130000002</v>
-      </c>
-      <c r="D13">
-        <v>104.6141755</v>
-      </c>
-      <c r="E13">
-        <v>408.74389029999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>